--- a/OUTPUT/Order_sheet.xlsx
+++ b/OUTPUT/Order_sheet.xlsx
@@ -476,7 +476,7 @@
     <row r="2">
       <c r="A2" s="3" t="inlineStr">
         <is>
-          <t>2023-01-28 18:46:28</t>
+          <t>2023-01-28 19:03:50</t>
         </is>
       </c>
     </row>
@@ -524,7 +524,7 @@
         <v>0.5714285714285714</v>
       </c>
       <c r="E5" t="n">
-        <v>29</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -543,7 +543,7 @@
         <v>0.5714285714285714</v>
       </c>
       <c r="E6" t="n">
-        <v>184</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7">
@@ -562,7 +562,7 @@
         <v>0.5238095238095237</v>
       </c>
       <c r="E7" t="n">
-        <v>40</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -581,7 +581,7 @@
         <v>0.4285714285714285</v>
       </c>
       <c r="E8" t="n">
-        <v>101</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -600,7 +600,7 @@
         <v>0.4761904761904762</v>
       </c>
       <c r="E9" t="n">
-        <v>75</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -619,7 +619,7 @@
         <v>0.4285714285714285</v>
       </c>
       <c r="E10" t="n">
-        <v>145</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -638,7 +638,7 @@
         <v>0.6190476190476191</v>
       </c>
       <c r="E11" t="n">
-        <v>96</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -657,7 +657,7 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="E12" t="n">
-        <v>75</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -676,7 +676,7 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="E13" t="n">
-        <v>132</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
